--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamad\workspace\excel_to_word\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,306 +26,305 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="97">
   <si>
-    <t xml:space="preserve">GTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student no.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject</t>
+    <t>GTA</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Student no.</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
   <si>
     <t xml:space="preserve">Course </t>
   </si>
   <si>
-    <t xml:space="preserve">Sec No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act. Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days Met</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TA Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email1@email.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRADING &amp; COURSE SUPPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ts1@ubc.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hjs66@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asjf@na.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsf@ubc.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jafhfaa@66as.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aefh@iin.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jdahf@ubc.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2kljaf@ubc.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jjjsa@ubc.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asjfk@ubc.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ahfiu@mail.ubc.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dghafiuh@mail.ubc.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ashguiag@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aiojgoiew@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asfii@ubc.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asfiojg@ubc.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kkkeuj@7778.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02824@581com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:00 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:00 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:00 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:00 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:00 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:00 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:00 PM</t>
+    <t>Sec No.</t>
+  </si>
+  <si>
+    <t>Act. Type</t>
+  </si>
+  <si>
+    <t>Days Met</t>
+  </si>
+  <si>
+    <t>Start time</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>TA Hours</t>
+  </si>
+  <si>
+    <t>Name_1</t>
+  </si>
+  <si>
+    <t>email1@email.com</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>GRADING &amp; COURSE SUPPORT</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>L02</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>L04</t>
+  </si>
+  <si>
+    <t>L05</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Name_2</t>
+  </si>
+  <si>
+    <t>ts1@ubc.ca</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L03</t>
+  </si>
+  <si>
+    <t>L09</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>Name_3</t>
+  </si>
+  <si>
+    <t>hjs66@gmail.com</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>TUT</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>Name_4</t>
+  </si>
+  <si>
+    <t>asjf@na.com</t>
+  </si>
+  <si>
+    <t>l01</t>
+  </si>
+  <si>
+    <t>l04</t>
+  </si>
+  <si>
+    <t>l05</t>
+  </si>
+  <si>
+    <t>L08</t>
+  </si>
+  <si>
+    <t>Name_5</t>
+  </si>
+  <si>
+    <t>jsf@ubc.ca</t>
+  </si>
+  <si>
+    <t>t02</t>
+  </si>
+  <si>
+    <t>t03</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>t04</t>
+  </si>
+  <si>
+    <t>jafhfaa@66as.com</t>
+  </si>
+  <si>
+    <t>l07</t>
+  </si>
+  <si>
+    <t>l10</t>
+  </si>
+  <si>
+    <t>l11</t>
+  </si>
+  <si>
+    <t>l12</t>
+  </si>
+  <si>
+    <t>Name_7</t>
+  </si>
+  <si>
+    <t>aefh@iin.com</t>
+  </si>
+  <si>
+    <t>L01</t>
+  </si>
+  <si>
+    <t>Name_8</t>
+  </si>
+  <si>
+    <t>jdahf@ubc.ca</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Name_9</t>
+  </si>
+  <si>
+    <t>2kljaf@ubc.ca</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>STAT</t>
+  </si>
+  <si>
+    <t>Name_10</t>
+  </si>
+  <si>
+    <t>jjjsa@ubc.ca</t>
+  </si>
+  <si>
+    <t>Name_11</t>
+  </si>
+  <si>
+    <t>asjfk@ubc.ca</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>Name_12</t>
+  </si>
+  <si>
+    <t>ahfiu@mail.ubc.ca</t>
+  </si>
+  <si>
+    <t>Name_13</t>
+  </si>
+  <si>
+    <t>dghafiuh@mail.ubc.ca</t>
+  </si>
+  <si>
+    <t>Name_14</t>
+  </si>
+  <si>
+    <t>ashguiag@gmail.com</t>
+  </si>
+  <si>
+    <t>Name_15</t>
+  </si>
+  <si>
+    <t>aiojgoiew@gmail.com</t>
+  </si>
+  <si>
+    <t>Name_16</t>
+  </si>
+  <si>
+    <t>asfii@ubc.ca</t>
+  </si>
+  <si>
+    <t>Name_17</t>
+  </si>
+  <si>
+    <t>asfiojg@ubc.ca</t>
+  </si>
+  <si>
+    <t>Name_18</t>
+  </si>
+  <si>
+    <t>Kkkeuj@7778.com</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>Name_19</t>
+  </si>
+  <si>
+    <t>02824@581com</t>
+  </si>
+  <si>
+    <t>4:00 PM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>2:00 PM</t>
+  </si>
+  <si>
+    <t>3:00 PM</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>1:00 PM</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
+  </si>
+  <si>
+    <t>12:00 PM</t>
+  </si>
+  <si>
+    <t>Mohamad Khajezade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm\ AM/PM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -329,29 +332,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -386,7 +374,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -394,101 +382,330 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M77" activeCellId="0" sqref="M77"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.56"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -523,17 +740,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>12345678</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -545,7 +762,7 @@
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -554,17 +771,17 @@
       <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>0.770833333333333</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="I5" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -583,17 +800,17 @@
       <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="6" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J6" s="6" t="n">
+      <c r="I6" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J6" s="6">
         <v>0.375</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -612,17 +829,17 @@
       <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>0.375</v>
       </c>
-      <c r="J7" s="6" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -641,17 +858,17 @@
       <c r="H8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J8" s="6" t="n">
+      <c r="I8" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="J8" s="6">
         <v>0.5</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -662,11 +879,11 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="3">
         <v>87654321</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -678,7 +895,7 @@
       <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -687,17 +904,17 @@
       <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="6" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="I10" s="6">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="K10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -716,17 +933,17 @@
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="6" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -736,26 +953,26 @@
       <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="6">
         <v>0.375</v>
       </c>
-      <c r="J12" s="6" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -774,23 +991,23 @@
       <c r="H13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="6">
         <v>0.5</v>
       </c>
-      <c r="J13" s="6" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="5">
         <v>101</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -799,17 +1016,17 @@
       <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J14" s="6" t="n">
+      <c r="I14" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="J14" s="6">
         <v>0.5</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -821,11 +1038,11 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="3">
         <v>97539278</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -837,7 +1054,7 @@
       <c r="E16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -846,17 +1063,17 @@
       <c r="H16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="6" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K16" s="0" t="n">
+      <c r="I16" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="K16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -875,17 +1092,17 @@
       <c r="H17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="6" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J17" s="6" t="n">
+      <c r="I17" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J17" s="6">
         <v>0.375</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -901,20 +1118,20 @@
       <c r="G18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="6" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J18" s="6" t="n">
+      <c r="I18" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J18" s="6">
         <v>0.375</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -933,17 +1150,17 @@
       <c r="H19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="6">
         <v>0.625</v>
       </c>
-      <c r="J19" s="6" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -955,11 +1172,11 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3">
         <v>27719221</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -971,26 +1188,26 @@
       <c r="E21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J21" s="6" t="n">
+      <c r="I21" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J21" s="6">
         <v>0.625</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1009,17 +1226,17 @@
       <c r="H22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="6" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1038,17 +1255,17 @@
       <c r="H23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="6">
         <v>0.5</v>
       </c>
-      <c r="J23" s="6" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1067,17 +1284,17 @@
       <c r="H24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="6" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1096,17 +1313,17 @@
       <c r="H25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J25" s="6" t="n">
+      <c r="I25" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="J25" s="6">
         <v>0.5</v>
       </c>
-      <c r="K25" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -1118,11 +1335,11 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="3">
         <v>21456667</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1134,26 +1351,26 @@
       <c r="E27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="7" t="n">
+      <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="6" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J27" s="6" t="n">
+      <c r="I27" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J27" s="6">
         <v>0.375</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -1172,17 +1389,17 @@
       <c r="H28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="6" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J28" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -1201,17 +1418,17 @@
       <c r="H29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="6">
         <v>0.5</v>
       </c>
-      <c r="J29" s="6" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -1221,26 +1438,26 @@
       <c r="E30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>49</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="6" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J30" s="6" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -1250,7 +1467,7 @@
       <c r="E31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -1259,17 +1476,17 @@
       <c r="H31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="6">
         <v>0.5</v>
       </c>
-      <c r="J31" s="6" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="K31" s="0" t="n">
+      <c r="J31" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -1281,23 +1498,23 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="3">
+        <v>24009890</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="3" t="n">
-        <v>24009890</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -1306,17 +1523,17 @@
       <c r="H33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="6" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J33" s="6" t="n">
+      <c r="I33" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="J33" s="6">
         <v>0.75</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -1327,7 +1544,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>19</v>
@@ -1335,17 +1552,17 @@
       <c r="H34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="6" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J34" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -1356,7 +1573,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>19</v>
@@ -1364,17 +1581,17 @@
       <c r="H35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="6" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J35" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -1385,25 +1602,25 @@
         <v>15</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J36" s="6" t="n">
+      <c r="I36" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="J36" s="6">
         <v>0.5</v>
       </c>
-      <c r="K36" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -1414,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>19</v>
@@ -1422,17 +1639,17 @@
       <c r="H37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="6" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J37" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -1444,42 +1661,42 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="3">
+        <v>28390012</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="3" t="n">
-        <v>28390012</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="6" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J39" s="6" t="n">
-        <v>0.770833333333333</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1490,7 +1707,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>19</v>
@@ -1498,17 +1715,17 @@
       <c r="H40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J40" s="6" t="n">
+      <c r="I40" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="J40" s="6">
         <v>0.5</v>
       </c>
-      <c r="K40" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -1527,17 +1744,17 @@
       <c r="H41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="6" t="n">
+      <c r="I41" s="6">
         <v>0.375</v>
       </c>
-      <c r="J41" s="6" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -1547,7 +1764,7 @@
       <c r="E42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" s="3">
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -1556,17 +1773,17 @@
       <c r="H42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="6" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J42" s="6" t="n">
+      <c r="I42" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J42" s="6">
         <v>0.375</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42">
         <v>6</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -1578,23 +1795,23 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="3">
+        <v>88827364</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="3" t="n">
-        <v>88827364</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" s="3">
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -1603,17 +1820,17 @@
       <c r="H44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="6" t="n">
+      <c r="I44" s="6">
         <v>0.5</v>
       </c>
-      <c r="J44" s="6" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="K44" s="0" t="n">
+      <c r="J44" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K44">
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -1623,26 +1840,26 @@
       <c r="E45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="7" t="n">
+      <c r="F45" s="7">
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I45" s="6" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="J45" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K45" s="0" t="n">
+      <c r="H45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="K45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -1654,71 +1871,71 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="3">
+        <v>82947776</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="3" t="n">
-        <v>82947776</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="3" t="n">
+      <c r="F47" s="3">
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I47" s="6" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J47" s="6" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="K47" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="K47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I48" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J48" s="6" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="K48" s="0" t="n">
+      <c r="H48" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="K48">
         <v>4</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -1730,23 +1947,23 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="3">
+        <v>31223121</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="3" t="n">
-        <v>31223121</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="5">
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
@@ -1755,17 +1972,17 @@
       <c r="H50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="6" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J50" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="K50" s="0" t="n">
+      <c r="I50" s="6">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="K50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -1777,24 +1994,24 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="3">
+        <v>22211122</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="3" t="n">
-        <v>22211122</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>35</v>
@@ -1802,17 +2019,17 @@
       <c r="H52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="6" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J52" s="6" t="n">
+      <c r="I52" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J52" s="6">
         <v>0.375</v>
       </c>
-      <c r="K52" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -1831,17 +2048,17 @@
       <c r="H53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I53" s="6" t="n">
+      <c r="I53" s="6">
         <v>0.375</v>
       </c>
-      <c r="J53" s="6" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -1852,47 +2069,47 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1010101</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="3" t="n">
-        <v>1010101</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="5" t="n">
+      <c r="F55" s="5">
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I55" s="6" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="J55" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K55" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="K55">
         <v>6</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>15</v>
@@ -1906,17 +2123,17 @@
       <c r="H56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I56" s="6" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J56" s="6" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I56" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -1926,26 +2143,26 @@
       <c r="E57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J57" s="6" t="n">
+      <c r="I57" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="J57" s="6">
         <v>0.5</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
@@ -1957,23 +2174,23 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="3">
+        <v>99276401</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="3" t="n">
-        <v>99276401</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="5" t="n">
+      <c r="F59" s="5">
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -1982,46 +2199,46 @@
       <c r="H59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="6" t="n">
+      <c r="I59" s="6">
         <v>0.5</v>
       </c>
-      <c r="J59" s="6" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="K59" s="0" t="n">
+      <c r="J59" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K59">
         <v>6</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="3" t="n">
+      <c r="F60" s="3">
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I60" s="6" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="J60" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K60" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="K60">
         <v>6</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -2033,23 +2250,23 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="3">
+        <v>12467234</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="3" t="n">
-        <v>12467234</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D62" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="3" t="n">
+      <c r="F62" s="3">
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -2058,46 +2275,46 @@
       <c r="H62" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I62" s="6" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J62" s="6" t="n">
+      <c r="I62" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J62" s="6">
         <v>0.375</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62">
         <v>6</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
       <c r="D63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="7" t="n">
+      <c r="F63" s="7">
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I63" s="6" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J63" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="K63" s="0" t="n">
+      <c r="H63" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="K63">
         <v>6</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
@@ -2109,23 +2326,23 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="3">
+        <v>21468855</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="3" t="n">
-        <v>21468855</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D65" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="3" t="n">
+      <c r="F65" s="3">
         <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -2134,46 +2351,46 @@
       <c r="H65" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I65" s="6" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J65" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="K65" s="0" t="n">
+      <c r="I65" s="6">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="K65">
         <v>10</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I66" s="6" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J66" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -2185,47 +2402,47 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="3">
+        <v>12455123</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="3" t="n">
-        <v>12455123</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="5" t="n">
+      <c r="F68" s="5">
         <v>1</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I68" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J68" s="6" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="K68" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="K68">
         <v>6</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
       <c r="D69" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>15</v>
@@ -2239,46 +2456,46 @@
       <c r="H69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I69" s="6" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J69" s="6" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K69" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="5">
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I70" s="6" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J70" s="6" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="K70" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="K70">
         <v>4</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -2290,42 +2507,42 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="3">
+        <v>28888991</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="3" t="n">
-        <v>28888991</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D72" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="7" t="n">
+      <c r="F72" s="7">
         <v>1</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="H72" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="6" t="n">
+      <c r="I72" s="6">
         <v>0.5</v>
       </c>
-      <c r="J72" s="6" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="K72" s="0" t="n">
+      <c r="J72" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K72">
         <v>12</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -2337,23 +2554,23 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="3">
+        <v>24622212</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="3" t="n">
-        <v>24622212</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="D74" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="3" t="n">
+      <c r="F74" s="3">
         <v>1</v>
       </c>
       <c r="G74" s="3" t="s">
@@ -2362,22 +2579,22 @@
       <c r="H74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I74" s="6" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J74" s="6" t="n">
+      <c r="I74" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="J74" s="6">
         <v>0.5</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="K74">
         <v>12</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
@@ -2409,23 +2626,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="3">
+        <v>22371400</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="3" t="n">
-        <v>22371400</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D83" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="5" t="n">
+      <c r="F83" s="5">
         <v>1</v>
       </c>
       <c r="G83" s="3" t="s">
@@ -2435,16 +2652,16 @@
         <v>31</v>
       </c>
       <c r="I83" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J83" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K83" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -2455,7 +2672,7 @@
         <v>15</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>19</v>
@@ -2464,16 +2681,16 @@
         <v>27</v>
       </c>
       <c r="I84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J84" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K84" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
@@ -2484,7 +2701,7 @@
         <v>15</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>19</v>
@@ -2493,16 +2710,16 @@
         <v>30</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K85" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -2513,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>19</v>
@@ -2522,16 +2739,16 @@
         <v>20</v>
       </c>
       <c r="I86" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J86" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J86" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K86" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -2551,16 +2768,16 @@
         <v>30</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K87" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
@@ -2580,41 +2797,40 @@
         <v>27</v>
       </c>
       <c r="I88" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J88" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J88" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K88" s="0" t="n">
+      <c r="K88">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="email1@email.com"/>
-    <hyperlink ref="C10" r:id="rId2" display="ts1@ubc.ca"/>
-    <hyperlink ref="C16" r:id="rId3" display="hjs66@gmail.com"/>
-    <hyperlink ref="C21" r:id="rId4" display="asjf@na.com"/>
-    <hyperlink ref="C27" r:id="rId5" display="jsf@ubc.ca"/>
-    <hyperlink ref="C33" r:id="rId6" display="jafhfaa@66as.com"/>
-    <hyperlink ref="C39" r:id="rId7" display="aefh@iin.com"/>
-    <hyperlink ref="C44" r:id="rId8" display="jdahf@ubc.ca"/>
-    <hyperlink ref="C47" r:id="rId9" display="2kljaf@ubc.ca"/>
-    <hyperlink ref="C50" r:id="rId10" display="jjjsa@ubc.ca"/>
-    <hyperlink ref="C52" r:id="rId11" display="asjfk@ubc.ca"/>
-    <hyperlink ref="C55" r:id="rId12" display="ahfiu@mail.ubc.ca"/>
-    <hyperlink ref="C59" r:id="rId13" display="dghafiuh@mail.ubc.ca"/>
-    <hyperlink ref="C62" r:id="rId14" display="ashguiag@gmail.com"/>
-    <hyperlink ref="C65" r:id="rId15" display="aiojgoiew@gmail.com"/>
-    <hyperlink ref="C68" r:id="rId16" display="asfii@ubc.ca"/>
-    <hyperlink ref="C72" r:id="rId17" display="asfiojg@ubc.ca"/>
-    <hyperlink ref="C74" r:id="rId18" display="Kkkeuj@7778.com"/>
-    <hyperlink ref="C83" r:id="rId19" display="02824@581com"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3"/>
+    <hyperlink ref="C21" r:id="rId4"/>
+    <hyperlink ref="C27" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
+    <hyperlink ref="C39" r:id="rId7"/>
+    <hyperlink ref="C44" r:id="rId8"/>
+    <hyperlink ref="C47" r:id="rId9"/>
+    <hyperlink ref="C50" r:id="rId10"/>
+    <hyperlink ref="C52" r:id="rId11"/>
+    <hyperlink ref="C55" r:id="rId12"/>
+    <hyperlink ref="C59" r:id="rId13"/>
+    <hyperlink ref="C62" r:id="rId14"/>
+    <hyperlink ref="C65" r:id="rId15"/>
+    <hyperlink ref="C68" r:id="rId16"/>
+    <hyperlink ref="C72" r:id="rId17"/>
+    <hyperlink ref="C74" r:id="rId18"/>
+    <hyperlink ref="C83" r:id="rId19"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
